--- a/TheoryLanguage/Tests/Оценки.xlsx
+++ b/TheoryLanguage/Tests/Оценки.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">Демин</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t xml:space="preserve">Соколовская</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Карпов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пояс</t>
   </si>
 </sst>
 </file>
@@ -55,6 +61,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -136,10 +143,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -153,7 +160,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="n">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -169,7 +176,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>3.9</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -185,7 +192,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -193,7 +200,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -201,7 +208,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/TheoryLanguage/Tests/Оценки.xlsx
+++ b/TheoryLanguage/Tests/Оценки.xlsx
@@ -20,33 +20,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t xml:space="preserve">№</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФИО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рейтинг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зачет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Итог</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аветисян</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гревцева</t>
+  </si>
   <si>
     <t xml:space="preserve">Демин</t>
   </si>
   <si>
+    <t xml:space="preserve">Еремеев</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Калмыков</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Карпов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Качало</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Липилин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Парчевский</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пояс</t>
+  </si>
+  <si>
     <t xml:space="preserve">Рождественский</t>
   </si>
   <si>
+    <t xml:space="preserve">Соколовская</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тюрников</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Файзуллаев</t>
+  </si>
+  <si>
     <t xml:space="preserve">Челбухов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Файзуллаев</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Липилин</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гревцева</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Соколовская</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Карпов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пояс</t>
   </si>
 </sst>
 </file>
@@ -143,82 +176,283 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="n">
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <f aca="false">C2*0.4+D2*0.6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <f aca="false">C3*0.4+D3*0.6</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="0" t="n">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="n">
+      <c r="E4" s="0" t="n">
+        <f aca="false">C4*0.4+D4*0.6</f>
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <f aca="false">C5*0.4+D5*0.6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <f aca="false">C6*0.4+D6*0.6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <f aca="false">C7*0.4+D7*0.6</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <f aca="false">C8*0.4+D8*0.6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <f aca="false">C9*0.4+D9*0.6</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <f aca="false">C10*0.4+D10*0.6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <f aca="false">C11*0.4+D11*0.6</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="0" t="n">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="n">
+      <c r="D12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <f aca="false">C12*0.4+D12*0.6</f>
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <f aca="false">C13*0.4+D13*0.6</f>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <f aca="false">C14*0.4+D14*0.6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <f aca="false">C15*0.4+D15*0.6</f>
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="0" t="n">
         <v>4.9</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>8</v>
+      <c r="E16" s="0" t="n">
+        <f aca="false">C16*0.4+D16*0.6</f>
+        <v>1.96</v>
       </c>
     </row>
   </sheetData>

--- a/TheoryLanguage/Tests/Оценки.xlsx
+++ b/TheoryLanguage/Tests/Оценки.xlsx
@@ -179,7 +179,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -249,9 +249,12 @@
       <c r="C4" s="0" t="n">
         <v>4.8</v>
       </c>
+      <c r="D4" s="0" t="n">
+        <v>5</v>
+      </c>
       <c r="E4" s="0" t="n">
         <f aca="false">C4*0.4+D4*0.6</f>
-        <v>1.92</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -282,9 +285,12 @@
       <c r="C6" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="D6" s="0" t="n">
+        <v>2.5</v>
+      </c>
       <c r="E6" s="0" t="n">
         <f aca="false">C6*0.4+D6*0.6</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/TheoryLanguage/Tests/Оценки.xlsx
+++ b/TheoryLanguage/Tests/Оценки.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">№</t>
   </si>
@@ -37,49 +37,16 @@
     <t xml:space="preserve">Итог</t>
   </si>
   <si>
-    <t xml:space="preserve">Аветисян</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гревцева</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Демин</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Еремеев</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Калмыков</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Карпов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Качало</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Липилин</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Парчевский</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пояс</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рождественский</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Соколовская</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тюрников</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Файзуллаев</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Челбухов</t>
+    <t xml:space="preserve">Козин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дроздов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ерофеев</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Третьяков</t>
   </si>
 </sst>
 </file>
@@ -161,18 +128,18 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -182,11 +149,10 @@
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -214,14 +180,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <f aca="false">C2*0.4+D2*0.6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -232,11 +191,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <f aca="false">C3*0.4+D3*0.6</f>
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -247,14 +202,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <f aca="false">C4*0.4+D4*0.6</f>
-        <v>4.92</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -265,200 +213,62 @@
         <v>8</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <f aca="false">C5*0.4+D5*0.6</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <f aca="false">C6*0.4+D6*0.6</f>
-        <v>1.5</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <f aca="false">C7*0.4+D7*0.6</f>
-        <v>1.6</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <f aca="false">C8*0.4+D8*0.6</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <f aca="false">C9*0.4+D9*0.6</f>
-        <v>1.6</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <f aca="false">C10*0.4+D10*0.6</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <f aca="false">C11*0.4+D11*0.6</f>
-        <v>1.6</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <f aca="false">C12*0.4+D12*0.6</f>
-        <v>4.92</v>
-      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <f aca="false">C13*0.4+D13*0.6</f>
-        <v>3.8</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <f aca="false">C14*0.4+D14*0.6</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <f aca="false">C15*0.4+D15*0.6</f>
-        <v>4.92</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>15</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <f aca="false">C16*0.4+D16*0.6</f>
-        <v>1.96</v>
       </c>
     </row>
   </sheetData>
